--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H2">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I2">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J2">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.714682989702133</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N2">
-        <v>0.714682989702133</v>
+        <v>2.542748</v>
       </c>
       <c r="O2">
-        <v>0.004769562457928523</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P2">
-        <v>0.004769562457928523</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q2">
-        <v>3.078470520600393</v>
+        <v>0.09793958977111111</v>
       </c>
       <c r="R2">
-        <v>3.078470520600393</v>
+        <v>0.88145630794</v>
       </c>
       <c r="S2">
-        <v>0.002326416983154066</v>
+        <v>3.587376451098157E-05</v>
       </c>
       <c r="T2">
-        <v>0.002326416983154066</v>
+        <v>3.711764559374063E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H3">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I3">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J3">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.592331226131</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N3">
-        <v>148.592331226131</v>
+        <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9916570210347619</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P3">
-        <v>0.9916570210347619</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q3">
-        <v>640.0559658731839</v>
+        <v>18.91359613591611</v>
       </c>
       <c r="R3">
-        <v>640.0559658731839</v>
+        <v>170.222365223245</v>
       </c>
       <c r="S3">
-        <v>0.483693788591501</v>
+        <v>0.006927759197494628</v>
       </c>
       <c r="T3">
-        <v>0.483693788591501</v>
+        <v>0.007167971194455129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.30746298003181</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H4">
-        <v>4.30746298003181</v>
+        <v>0.346655</v>
       </c>
       <c r="I4">
-        <v>0.4877631865972998</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J4">
-        <v>0.4877631865972998</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.535449533457636</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N4">
-        <v>0.535449533457636</v>
+        <v>0.155107</v>
       </c>
       <c r="O4">
-        <v>0.003573416507309467</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P4">
-        <v>0.003573416507309467</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q4">
-        <v>2.306429043044071</v>
+        <v>0.005974290787222222</v>
       </c>
       <c r="R4">
-        <v>2.306429043044071</v>
+        <v>0.053768617085</v>
       </c>
       <c r="S4">
-        <v>0.001742981022644659</v>
+        <v>2.188290775178987E-06</v>
       </c>
       <c r="T4">
-        <v>0.001742981022644659</v>
+        <v>2.264167214017405E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.19677421850268</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H5">
-        <v>3.19677421850268</v>
+        <v>0.346655</v>
       </c>
       <c r="I5">
-        <v>0.3619923808695031</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J5">
-        <v>0.3619923808695031</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.714682989702133</v>
+        <v>0.065874</v>
       </c>
       <c r="N5">
-        <v>0.714682989702133</v>
+        <v>0.197622</v>
       </c>
       <c r="O5">
-        <v>0.004769562457928523</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P5">
-        <v>0.004769562457928523</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q5">
-        <v>2.284680155882195</v>
+        <v>0.00761185049</v>
       </c>
       <c r="R5">
-        <v>2.284680155882195</v>
+        <v>0.06850665440999999</v>
       </c>
       <c r="S5">
-        <v>0.001726545269851345</v>
+        <v>2.78810369340147E-06</v>
       </c>
       <c r="T5">
-        <v>0.001726545269851345</v>
+        <v>2.884777947923354E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.19677421850268</v>
+        <v>0.1155516666666667</v>
       </c>
       <c r="H6">
-        <v>3.19677421850268</v>
+        <v>0.346655</v>
       </c>
       <c r="I6">
-        <v>0.3619923808695031</v>
+        <v>0.007028978357547423</v>
       </c>
       <c r="J6">
-        <v>0.3619923808695031</v>
+        <v>0.00725187926921692</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.592331226131</v>
+        <v>1.426327</v>
       </c>
       <c r="N6">
-        <v>148.592331226131</v>
+        <v>2.852654</v>
       </c>
       <c r="O6">
-        <v>0.9916570210347619</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P6">
-        <v>0.9916570210347619</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q6">
-        <v>475.0161335309063</v>
+        <v>0.1648144620616666</v>
       </c>
       <c r="R6">
-        <v>475.0161335309063</v>
+        <v>0.9888867723699999</v>
       </c>
       <c r="S6">
-        <v>0.3589722860503324</v>
+        <v>6.036900107323433E-05</v>
       </c>
       <c r="T6">
-        <v>0.3589722860503324</v>
+        <v>4.164148400610938E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.19677421850268</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H7">
-        <v>3.19677421850268</v>
+        <v>14.229332</v>
       </c>
       <c r="I7">
-        <v>0.3619923808695031</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J7">
-        <v>0.3619923808695031</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.535449533457636</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N7">
-        <v>0.535449533457636</v>
+        <v>2.542748</v>
       </c>
       <c r="O7">
-        <v>0.003573416507309467</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P7">
-        <v>0.003573416507309467</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q7">
-        <v>1.711711263866659</v>
+        <v>4.020178387148444</v>
       </c>
       <c r="R7">
-        <v>1.711711263866659</v>
+        <v>36.181605484336</v>
       </c>
       <c r="S7">
-        <v>0.001293549549319338</v>
+        <v>0.001472529475462851</v>
       </c>
       <c r="T7">
-        <v>0.001293549549319338</v>
+        <v>0.001523587723274358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3268166784119</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H8">
-        <v>1.3268166784119</v>
+        <v>14.229332</v>
       </c>
       <c r="I8">
-        <v>0.150244432533197</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J8">
-        <v>0.150244432533197</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.714682989702133</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N8">
-        <v>0.714682989702133</v>
+        <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.004769562457928523</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P8">
-        <v>0.004769562457928523</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q8">
-        <v>0.9482533105140701</v>
+        <v>776.3564314141365</v>
       </c>
       <c r="R8">
-        <v>0.9482533105140701</v>
+        <v>6987.207882727228</v>
       </c>
       <c r="S8">
-        <v>0.0007166002049231113</v>
+        <v>0.2843674132414205</v>
       </c>
       <c r="T8">
-        <v>0.0007166002049231113</v>
+        <v>0.2942275227310686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3268166784119</v>
+        <v>4.743110666666666</v>
       </c>
       <c r="H9">
-        <v>1.3268166784119</v>
+        <v>14.229332</v>
       </c>
       <c r="I9">
-        <v>0.150244432533197</v>
+        <v>0.2885222098927089</v>
       </c>
       <c r="J9">
-        <v>0.150244432533197</v>
+        <v>0.2976717420651799</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>148.592331226131</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N9">
-        <v>148.592331226131</v>
+        <v>0.155107</v>
       </c>
       <c r="O9">
-        <v>0.9916570210347619</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P9">
-        <v>0.9916570210347619</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q9">
-        <v>197.154783354936</v>
+        <v>0.2452298887248889</v>
       </c>
       <c r="R9">
-        <v>197.154783354936</v>
+        <v>2.207068998524</v>
       </c>
       <c r="S9">
-        <v>0.1489909463929284</v>
+        <v>8.982393432247961E-05</v>
       </c>
       <c r="T9">
-        <v>0.1489909463929284</v>
+        <v>9.293847482877417E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.743110666666666</v>
+      </c>
+      <c r="H10">
+        <v>14.229332</v>
+      </c>
+      <c r="I10">
+        <v>0.2885222098927089</v>
+      </c>
+      <c r="J10">
+        <v>0.2976717420651799</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.065874</v>
+      </c>
+      <c r="N10">
+        <v>0.197622</v>
+      </c>
+      <c r="O10">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P10">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q10">
+        <v>0.312447672056</v>
+      </c>
+      <c r="R10">
+        <v>2.812029048504</v>
+      </c>
+      <c r="S10">
+        <v>0.0001144447739217254</v>
+      </c>
+      <c r="T10">
+        <v>0.0001184130134204904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.743110666666666</v>
+      </c>
+      <c r="H11">
+        <v>14.229332</v>
+      </c>
+      <c r="I11">
+        <v>0.2885222098927089</v>
+      </c>
+      <c r="J11">
+        <v>0.2976717420651799</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.426327</v>
+      </c>
+      <c r="N11">
+        <v>2.852654</v>
+      </c>
+      <c r="O11">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P11">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q11">
+        <v>6.765226807854666</v>
+      </c>
+      <c r="R11">
+        <v>40.59136084712799</v>
+      </c>
+      <c r="S11">
+        <v>0.002477998467581335</v>
+      </c>
+      <c r="T11">
+        <v>0.001709280122587646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H12">
+        <v>16.718687</v>
+      </c>
+      <c r="I12">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J12">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.542748</v>
+      </c>
+      <c r="O12">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P12">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q12">
+        <v>4.723489770208444</v>
+      </c>
+      <c r="R12">
+        <v>42.511407931876</v>
+      </c>
+      <c r="S12">
+        <v>0.001730141611604647</v>
+      </c>
+      <c r="T12">
+        <v>0.001790132260774196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H13">
+        <v>16.718687</v>
+      </c>
+      <c r="I13">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J13">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N13">
+        <v>491.042579</v>
+      </c>
+      <c r="O13">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P13">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q13">
+        <v>912.1763535526416</v>
+      </c>
+      <c r="R13">
+        <v>8209.587181973773</v>
+      </c>
+      <c r="S13">
+        <v>0.3341161605466065</v>
+      </c>
+      <c r="T13">
+        <v>0.3457012500183509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H14">
+        <v>16.718687</v>
+      </c>
+      <c r="I14">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J14">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.155107</v>
+      </c>
+      <c r="O14">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P14">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q14">
+        <v>0.2881317093898889</v>
+      </c>
+      <c r="R14">
+        <v>2.593185384509</v>
+      </c>
+      <c r="S14">
+        <v>0.0001055382110028843</v>
+      </c>
+      <c r="T14">
+        <v>0.0001091976257859226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H15">
+        <v>16.718687</v>
+      </c>
+      <c r="I15">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J15">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.065874</v>
+      </c>
+      <c r="N15">
+        <v>0.197622</v>
+      </c>
+      <c r="O15">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P15">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q15">
+        <v>0.367108929146</v>
+      </c>
+      <c r="R15">
+        <v>3.303980362314</v>
+      </c>
+      <c r="S15">
+        <v>0.0001344663511950589</v>
+      </c>
+      <c r="T15">
+        <v>0.0001391288156115817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.572895666666667</v>
+      </c>
+      <c r="H16">
+        <v>16.718687</v>
+      </c>
+      <c r="I16">
+        <v>0.338997819415873</v>
+      </c>
+      <c r="J16">
+        <v>0.3497480193963059</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.426327</v>
+      </c>
+      <c r="N16">
+        <v>2.852654</v>
+      </c>
+      <c r="O16">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P16">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q16">
+        <v>7.948771557549666</v>
+      </c>
+      <c r="R16">
+        <v>47.69262934529799</v>
+      </c>
+      <c r="S16">
+        <v>0.002911512695463988</v>
+      </c>
+      <c r="T16">
+        <v>0.002008310675783268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H17">
+        <v>13.475646</v>
+      </c>
+      <c r="I17">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J17">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.542748</v>
+      </c>
+      <c r="O17">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P17">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q17">
+        <v>3.807241323912</v>
+      </c>
+      <c r="R17">
+        <v>34.265171915208</v>
+      </c>
+      <c r="S17">
+        <v>0.001394533906152661</v>
+      </c>
+      <c r="T17">
+        <v>0.001442887748264726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H18">
+        <v>13.475646</v>
+      </c>
+      <c r="I18">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J18">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N18">
+        <v>491.042579</v>
+      </c>
+      <c r="O18">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P18">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q18">
+        <v>735.2351072812261</v>
+      </c>
+      <c r="R18">
+        <v>6617.115965531034</v>
+      </c>
+      <c r="S18">
+        <v>0.2693053050401167</v>
+      </c>
+      <c r="T18">
+        <v>0.2786431534369171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.3268166784119</v>
-      </c>
-      <c r="H10">
-        <v>1.3268166784119</v>
-      </c>
-      <c r="I10">
-        <v>0.150244432533197</v>
-      </c>
-      <c r="J10">
-        <v>0.150244432533197</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.535449533457636</v>
-      </c>
-      <c r="N10">
-        <v>0.535449533457636</v>
-      </c>
-      <c r="O10">
-        <v>0.003573416507309467</v>
-      </c>
-      <c r="P10">
-        <v>0.003573416507309467</v>
-      </c>
-      <c r="Q10">
-        <v>0.7104433714394621</v>
-      </c>
-      <c r="R10">
-        <v>0.7104433714394621</v>
-      </c>
-      <c r="S10">
-        <v>0.0005368859353454698</v>
-      </c>
-      <c r="T10">
-        <v>0.0005368859353454698</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H19">
+        <v>13.475646</v>
+      </c>
+      <c r="I19">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J19">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.155107</v>
+      </c>
+      <c r="O19">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P19">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q19">
+        <v>0.232240780458</v>
+      </c>
+      <c r="R19">
+        <v>2.090167024122</v>
+      </c>
+      <c r="S19">
+        <v>8.50662238576614E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.801579628421569E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H20">
+        <v>13.475646</v>
+      </c>
+      <c r="I20">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J20">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.065874</v>
+      </c>
+      <c r="N20">
+        <v>0.197622</v>
+      </c>
+      <c r="O20">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P20">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q20">
+        <v>0.295898234868</v>
+      </c>
+      <c r="R20">
+        <v>2.663084113812</v>
+      </c>
+      <c r="S20">
+        <v>0.0001083829697640904</v>
+      </c>
+      <c r="T20">
+        <v>0.0001121410232502677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>4.491881999999999</v>
+      </c>
+      <c r="H21">
+        <v>13.475646</v>
+      </c>
+      <c r="I21">
+        <v>0.2732400342933767</v>
+      </c>
+      <c r="J21">
+        <v>0.2819049425702959</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.426327</v>
+      </c>
+      <c r="N21">
+        <v>2.852654</v>
+      </c>
+      <c r="O21">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P21">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q21">
+        <v>6.406892577413998</v>
+      </c>
+      <c r="R21">
+        <v>38.441355464484</v>
+      </c>
+      <c r="S21">
+        <v>0.002346746153485528</v>
+      </c>
+      <c r="T21">
+        <v>0.001618744565579587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.515886</v>
+      </c>
+      <c r="H22">
+        <v>3.031772</v>
+      </c>
+      <c r="I22">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J22">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.542748</v>
+      </c>
+      <c r="O22">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P22">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q22">
+        <v>1.284838698242667</v>
+      </c>
+      <c r="R22">
+        <v>7.709032189456001</v>
+      </c>
+      <c r="S22">
+        <v>0.0004706166423922386</v>
+      </c>
+      <c r="T22">
+        <v>0.0003246231515974853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.515886</v>
+      </c>
+      <c r="H23">
+        <v>3.031772</v>
+      </c>
+      <c r="I23">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J23">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N23">
+        <v>491.042579</v>
+      </c>
+      <c r="O23">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P23">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q23">
+        <v>248.1215236366647</v>
+      </c>
+      <c r="R23">
+        <v>1488.729141819988</v>
+      </c>
+      <c r="S23">
+        <v>0.09088309569041274</v>
+      </c>
+      <c r="T23">
+        <v>0.06268957425727487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.515886</v>
+      </c>
+      <c r="H24">
+        <v>3.031772</v>
+      </c>
+      <c r="I24">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J24">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.155107</v>
+      </c>
+      <c r="O24">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P24">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q24">
+        <v>0.07837484326733334</v>
+      </c>
+      <c r="R24">
+        <v>0.470249059604</v>
+      </c>
+      <c r="S24">
+        <v>2.870749895449055E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.980193207302932E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.515886</v>
+      </c>
+      <c r="H25">
+        <v>3.031772</v>
+      </c>
+      <c r="I25">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J25">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.065874</v>
+      </c>
+      <c r="N25">
+        <v>0.197622</v>
+      </c>
+      <c r="O25">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P25">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q25">
+        <v>0.09985747436400001</v>
+      </c>
+      <c r="R25">
+        <v>0.599144846184</v>
+      </c>
+      <c r="S25">
+        <v>3.657625612244665E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.522966352347863E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.515886</v>
+      </c>
+      <c r="H26">
+        <v>3.031772</v>
+      </c>
+      <c r="I26">
+        <v>0.09221095804049387</v>
+      </c>
+      <c r="J26">
+        <v>0.06342341669900138</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.426327</v>
+      </c>
+      <c r="N26">
+        <v>2.852654</v>
+      </c>
+      <c r="O26">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P26">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q26">
+        <v>2.162149130722</v>
+      </c>
+      <c r="R26">
+        <v>8.648596522887999</v>
+      </c>
+      <c r="S26">
+        <v>0.0007919619526119706</v>
+      </c>
+      <c r="T26">
+        <v>0.0003641876945325187</v>
       </c>
     </row>
   </sheetData>
